--- a/raw_data/raw_artificial_dat/vendors_db_1.xlsx
+++ b/raw_data/raw_artificial_dat/vendors_db_1.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duke\Lectures\02_IDS_706_DATA_ENGINEERING\group_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B3B154-AE03-45F4-9156-B8D956071575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA4C10-6874-40B9-A66D-B19BB1E32B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -425,7 +438,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
